--- a/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2020-8.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2020-8.xlsx
@@ -52,22 +52,22 @@
     <t>Cheque, Notificación Protesto</t>
   </si>
   <si>
+    <t>Medida Prejudicial Precautoria</t>
+  </si>
+  <si>
     <t>Minera, Manifestación (Concesión Para Explotación)</t>
   </si>
   <si>
-    <t>Medida Prejudicial Precautoria</t>
-  </si>
-  <si>
     <t>Registro Civil, Rectificación Partidas</t>
   </si>
   <si>
     <t>Perjuicios, Indemnización De</t>
   </si>
   <si>
+    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+  </si>
+  <si>
     <t>Nombre, Autorización Cambio De</t>
-  </si>
-  <si>
-    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
   </si>
   <si>
     <t>Liquidación Voluntaria Persona Natural</t>
